--- a/data/trans_bre/P16A05-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P16A05-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,23%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>144,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>205,52%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-2,76; 5,14</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 12,68</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 10,86</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-0,0; 6,6</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,09; 893,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,77; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,9; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>238,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,72%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 2,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,05; 6,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,79; 7,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 4,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,34; 95,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,8; 268,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>74,41; 535,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,43; 138,89</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>124,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>171,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>116,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>218,12%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,3; 5,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,19; 7,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,56; 5,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,13; 9,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,21; 276,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>78,76; 332,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,98; 232,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>115,17; 377,35</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>250,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,29%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,84; 7,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 5,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,07; 6,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 4,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>94,26; 600,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,67; 235,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,57; 206,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,33; 108,92</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,49%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,05%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,3%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,88%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,57; 4,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,41; 5,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,14; 6,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,78; 6,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,46; 202,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,9; 212,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,59; 193,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,34; 150,99</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>91,41%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,76; 3,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,68; 4,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,05; 5,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,83; 5,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,07; 164,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>67,04; 166,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>77,07; 173,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,56; 133,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A05-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>71,23%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>123,64%</t>
+          <t>103,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>144,17%</t>
+          <t>217,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>205,52%</t>
+          <t>63,04%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 5,14</t>
+          <t>-1,44; 2,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 12,68</t>
+          <t>1,1; 6,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 10,86</t>
+          <t>2,89; 7,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 6,6</t>
+          <t>0,62; 4,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,6; 96,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-49,09; 893,66</t>
+          <t>21,65; 231,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-45,77; —</t>
+          <t>73,29; 453,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-33,9; —</t>
+          <t>10,06; 147,85</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>7,67</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>124,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>99,2%</t>
+          <t>171,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>238,31%</t>
+          <t>116,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>51,72%</t>
+          <t>289,01%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 2,11</t>
+          <t>1,3; 5,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 6,27</t>
+          <t>3,19; 7,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 7,96</t>
+          <t>1,56; 5,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 4,9</t>
+          <t>5,73; 10,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,34; 95,96</t>
+          <t>35,21; 276,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,8; 268,59</t>
+          <t>78,76; 332,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>74,41; 535,17</t>
+          <t>38,98; 232,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 138,89</t>
+          <t>159,03; 693,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>124,96%</t>
+          <t>250,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>171,47%</t>
+          <t>81,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>116,91%</t>
+          <t>87,7%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>218,12%</t>
+          <t>17,4%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,15</t>
+          <t>2,84; 7,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 7,1</t>
+          <t>0,28; 5,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,67</t>
+          <t>1,07; 6,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 9,15</t>
+          <t>-2,69; 3,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,21; 276,59</t>
+          <t>94,26; 600,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>78,76; 332,67</t>
+          <t>1,67; 235,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>38,98; 232,04</t>
+          <t>18,57; 206,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>115,17; 377,35</t>
+          <t>-43,32; 92,48</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>250,96%</t>
+          <t>87,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>81,42%</t>
+          <t>90,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>87,7%</t>
+          <t>102,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,29%</t>
+          <t>60,65%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,84; 7,2</t>
+          <t>0,57; 4,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 5,11</t>
+          <t>1,41; 5,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 6,14</t>
+          <t>2,14; 6,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 4,54</t>
+          <t>1,05; 5,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,26; 600,6</t>
+          <t>13,46; 202,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 235,68</t>
+          <t>26,9; 212,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,57; 206,14</t>
+          <t>37,59; 193,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,33; 108,92</t>
+          <t>16,55; 131,89</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>87,49%</t>
+          <t>106,51%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>90,05%</t>
+          <t>112,42%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>102,3%</t>
+          <t>119,34%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>72,88%</t>
+          <t>94,11%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,13</t>
+          <t>1,76; 3,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 5,53</t>
+          <t>2,68; 4,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 6,71</t>
+          <t>3,05; 5,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,22</t>
+          <t>2,4; 5,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,46; 202,3</t>
+          <t>58,07; 164,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,9; 212,18</t>
+          <t>67,04; 166,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>37,59; 193,03</t>
+          <t>77,07; 173,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,34; 150,99</t>
+          <t>54,7; 152,07</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,77</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,15</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>4,08</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>106,51%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>112,42%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>119,34%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>91,41%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,76; 3,63</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,68; 4,88</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3,05; 5,37</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2,83; 5,29</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>58,07; 164,05</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>67,04; 166,85</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>77,07; 173,3</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>56,56; 133,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P16A05-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,02</t>
+          <t>-1,17; 2,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,03</t>
+          <t>1,11; 5,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 7,69</t>
+          <t>2,79; 7,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 4,86</t>
+          <t>0,72; 4,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,6; 96,34</t>
+          <t>-34,72; 114,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,65; 231,33</t>
+          <t>22,08; 237,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>73,29; 453,33</t>
+          <t>72,22; 464,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,06; 147,85</t>
+          <t>13,29; 152,16</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,15</t>
+          <t>1,2; 4,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 7,1</t>
+          <t>2,89; 7,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,67</t>
+          <t>1,77; 5,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,73; 10,11</t>
+          <t>5,76; 9,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,21; 276,59</t>
+          <t>37,57; 264,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>78,76; 332,67</t>
+          <t>75,8; 327,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,98; 232,04</t>
+          <t>42,43; 235,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>159,03; 693,7</t>
+          <t>148,8; 726,84</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 7,2</t>
+          <t>2,62; 6,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 5,11</t>
+          <t>0,36; 5,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 6,14</t>
+          <t>1,03; 5,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,66</t>
+          <t>-2,81; 3,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>94,26; 600,6</t>
+          <t>82,64; 524,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 235,68</t>
+          <t>0,61; 235,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,57; 206,14</t>
+          <t>18,3; 201,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-43,32; 92,48</t>
+          <t>-42,27; 85,79</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,13</t>
+          <t>0,66; 4,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,41; 5,53</t>
+          <t>1,23; 5,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 6,71</t>
+          <t>2,28; 6,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 5,38</t>
+          <t>0,97; 5,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,46; 202,3</t>
+          <t>17,28; 202,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,9; 212,18</t>
+          <t>21,47; 181,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,59; 193,03</t>
+          <t>41,15; 200,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,55; 131,89</t>
+          <t>14,59; 129,93</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,63</t>
+          <t>1,78; 3,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,68; 4,88</t>
+          <t>2,52; 4,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,05; 5,37</t>
+          <t>3,02; 5,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,19</t>
+          <t>2,33; 5,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>58,07; 164,05</t>
+          <t>57,93; 164,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>67,04; 166,85</t>
+          <t>63,66; 167,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>77,07; 173,3</t>
+          <t>77,32; 173,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>54,7; 152,07</t>
+          <t>54,4; 155,71</t>
         </is>
       </c>
     </row>
